--- a/biology/Zoologie/Dysganus/Dysganus.xlsx
+++ b/biology/Zoologie/Dysganus/Dysganus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dysganus est un genre hypothétique de dinosaures cératopsiens du Crétacé supérieur retrouvé au Montana, États-Unis.
-Il comprend les espèces Dysganus encaustus, D. bicarinatus, D. peiganus et D. haydenianus, chacune constituées à partir d'une ou de quelques dents et toutes décrites par Edward Drinker Cope en 1876[1]. L'espèce-type est D. encaustus, dont les restes ont été retrouvés dans la  formation de Judith River.
-De nouvelles analyses des dents rendent le genre nomen dubium[2].
-Dysganus a d'abord été classé chez les Hadrosauridae[3]. Il aurait vécu dans le même environnement que Palaeoscincus (en), Cionodon, Diclonius et Monoclonius[4].
+Il comprend les espèces Dysganus encaustus, D. bicarinatus, D. peiganus et D. haydenianus, chacune constituées à partir d'une ou de quelques dents et toutes décrites par Edward Drinker Cope en 1876. L'espèce-type est D. encaustus, dont les restes ont été retrouvés dans la  formation de Judith River.
+De nouvelles analyses des dents rendent le genre nomen dubium.
+Dysganus a d'abord été classé chez les Hadrosauridae. Il aurait vécu dans le même environnement que Palaeoscincus (en), Cionodon, Diclonius et Monoclonius.
 </t>
         </is>
       </c>
